--- a/teaching/traditional_assets/database/data/oman/oman_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_financial_svcs_non_bank_insurance.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.008659999999999999</v>
+        <v>-0.011155</v>
       </c>
       <c r="E2">
-        <v>-0.0929</v>
+        <v>-0.09970000000000001</v>
       </c>
       <c r="G2">
-        <v>0.04235882370396747</v>
+        <v>0.4213893239189871</v>
       </c>
       <c r="H2">
-        <v>0.04235882370396747</v>
+        <v>0.4213893239189871</v>
       </c>
       <c r="I2">
-        <v>0.04100270037686578</v>
+        <v>0.3587449897804794</v>
       </c>
       <c r="J2">
-        <v>0.03752782729816671</v>
+        <v>0.3116639388897583</v>
       </c>
       <c r="K2">
-        <v>115.32</v>
+        <v>133.86</v>
       </c>
       <c r="L2">
-        <v>0.1711030000890234</v>
+        <v>0.1776603933851831</v>
       </c>
       <c r="M2">
-        <v>153.03</v>
+        <v>113.82</v>
       </c>
       <c r="N2">
-        <v>0.1895343076541987</v>
+        <v>0.1213303485769108</v>
       </c>
       <c r="O2">
-        <v>1.327003121748179</v>
+        <v>0.8502913491707753</v>
       </c>
       <c r="P2">
-        <v>69.93000000000001</v>
+        <v>113.82</v>
       </c>
       <c r="Q2">
-        <v>0.08661134505821155</v>
+        <v>0.1213303485769108</v>
       </c>
       <c r="R2">
-        <v>0.6063995837669096</v>
+        <v>0.8502913491707753</v>
       </c>
       <c r="S2">
-        <v>83.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.5430307782787688</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>867.04</v>
+        <v>550.5</v>
       </c>
       <c r="V2">
-        <v>1.073866732722319</v>
+        <v>0.5868244323632875</v>
       </c>
       <c r="W2">
-        <v>0.04565071864853085</v>
+        <v>0.04121709732147109</v>
       </c>
       <c r="X2">
-        <v>0.06161963225507391</v>
+        <v>0.08182782500622357</v>
       </c>
       <c r="Y2">
-        <v>-0.01596891360654307</v>
+        <v>-0.04061072768475248</v>
       </c>
       <c r="Z2">
-        <v>0.3367492243046222</v>
+        <v>0.2165525645668431</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04955418816105339</v>
+        <v>0.05022363700749735</v>
       </c>
       <c r="AC2">
-        <v>-0.04561963031590489</v>
+        <v>-0.04952077106789983</v>
       </c>
       <c r="AD2">
-        <v>1751.4</v>
+        <v>2480.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1751.4</v>
+        <v>2480.6</v>
       </c>
       <c r="AG2">
-        <v>884.3600000000001</v>
+        <v>1930.1</v>
       </c>
       <c r="AH2">
-        <v>0.6844614663123338</v>
+        <v>0.725597449322842</v>
       </c>
       <c r="AI2">
-        <v>0.5020639834881321</v>
+        <v>0.6243330313097755</v>
       </c>
       <c r="AJ2">
-        <v>0.5227455431030407</v>
+        <v>0.672930757966669</v>
       </c>
       <c r="AK2">
-        <v>0.337366863002411</v>
+        <v>0.5639115318315949</v>
       </c>
       <c r="AL2">
-        <v>15.536</v>
+        <v>138.8</v>
       </c>
       <c r="AM2">
-        <v>15.466</v>
+        <v>138.8</v>
       </c>
       <c r="AN2">
-        <v>62.36735275265295</v>
+        <v>8.719156414762741</v>
       </c>
       <c r="AO2">
-        <v>1.778771884654995</v>
+        <v>1.947406340057637</v>
       </c>
       <c r="AP2">
-        <v>31.49205897015882</v>
+        <v>6.784182776801406</v>
       </c>
       <c r="AQ2">
-        <v>1.78682270787534</v>
+        <v>1.947406340057637</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Financial Corporation Company SAOG (MSM:FINC)</t>
+          <t>Oman International Development and Investment Company SAOG (MSM:OMVS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,113 +724,122 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.208</v>
+      </c>
+      <c r="E3">
+        <v>0.154</v>
+      </c>
       <c r="G3">
-        <v>0.01762589928057554</v>
+        <v>0.4692134107027724</v>
       </c>
       <c r="H3">
-        <v>0.01762589928057554</v>
+        <v>0.4692134107027724</v>
       </c>
       <c r="I3">
-        <v>0.1924460431654677</v>
+        <v>0.4021598968407479</v>
       </c>
       <c r="J3">
-        <v>0.1924460431654677</v>
+        <v>0.3492243146614605</v>
       </c>
       <c r="K3">
-        <v>-1.04</v>
+        <v>100.4</v>
       </c>
       <c r="L3">
-        <v>-0.3741007194244605</v>
+        <v>0.1618310767246938</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>83.8</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.1428327935912732</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8346613545816732</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>83.8</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.1428327935912732</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.8346613545816732</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>3.68</v>
+        <v>324.6</v>
       </c>
       <c r="V3">
-        <v>0.2067415730337079</v>
+        <v>0.5532640190898245</v>
       </c>
       <c r="W3">
-        <v>-0.05473684210526316</v>
+        <v>0.122873577285522</v>
       </c>
       <c r="X3">
-        <v>0.030663507955008</v>
+        <v>0.03829981032240859</v>
       </c>
       <c r="Y3">
-        <v>-0.08540035006027116</v>
+        <v>0.08457376696311338</v>
       </c>
       <c r="Z3">
-        <v>0.18122555410691</v>
+        <v>0.6191616766467064</v>
       </c>
       <c r="AA3">
-        <v>0.0348761408083442</v>
+        <v>0.2162263121915868</v>
       </c>
       <c r="AB3">
-        <v>0.030663507955008</v>
+        <v>0.0464837209993795</v>
       </c>
       <c r="AC3">
-        <v>0.004212632853336201</v>
+        <v>0.1697425911922073</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>795.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>795.2</v>
       </c>
       <c r="AG3">
-        <v>-3.68</v>
+        <v>470.6</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.5754396121282292</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.5209984930878595</v>
       </c>
       <c r="AJ3">
-        <v>-0.2606232294617564</v>
+        <v>0.4450959992433557</v>
       </c>
       <c r="AK3">
-        <v>-0.2587904360056259</v>
+        <v>0.3916118831655155</v>
       </c>
       <c r="AL3">
-        <v>0.036</v>
+        <v>122.2</v>
       </c>
       <c r="AM3">
-        <v>-0.03400000000000001</v>
+        <v>122.2</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>3.018982536066819</v>
       </c>
       <c r="AO3">
-        <v>14.86111111111111</v>
+        <v>2.041734860883797</v>
       </c>
       <c r="AP3">
-        <v>-6.323024054982818</v>
+        <v>1.78663629460896</v>
       </c>
       <c r="AQ3">
-        <v>-15.73529411764706</v>
+        <v>2.041734860883797</v>
       </c>
     </row>
     <row r="4">
@@ -850,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.008659999999999999</v>
+        <v>-0.0202</v>
       </c>
       <c r="E4">
-        <v>-0.0929</v>
+        <v>-0.28</v>
       </c>
       <c r="G4">
-        <v>0.608974358974359</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="H4">
-        <v>0.608974358974359</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="I4">
-        <v>0.5790598290598291</v>
+        <v>0.4716553287981859</v>
       </c>
       <c r="J4">
-        <v>0.5008620059902111</v>
+        <v>0.381254724111867</v>
       </c>
       <c r="K4">
-        <v>10.1</v>
+        <v>3.39</v>
       </c>
       <c r="L4">
-        <v>0.2158119658119658</v>
+        <v>0.07687074829931972</v>
       </c>
       <c r="M4">
-        <v>8.369999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="N4">
-        <v>0.1126514131897712</v>
+        <v>0.1036821705426356</v>
       </c>
       <c r="O4">
-        <v>0.8287128712871287</v>
+        <v>1.578171091445428</v>
       </c>
       <c r="P4">
-        <v>8.369999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="Q4">
-        <v>0.1126514131897712</v>
+        <v>0.1036821705426356</v>
       </c>
       <c r="R4">
-        <v>0.8287128712871287</v>
+        <v>1.578171091445428</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>121.8</v>
+        <v>191.8</v>
       </c>
       <c r="V4">
-        <v>1.639300134589502</v>
+        <v>3.717054263565891</v>
       </c>
       <c r="W4">
-        <v>0.05664610207515423</v>
+        <v>0.02009484291641968</v>
       </c>
       <c r="X4">
-        <v>0.07504255813237681</v>
+        <v>0.09167693776384939</v>
       </c>
       <c r="Y4">
-        <v>-0.01839645605722259</v>
+        <v>-0.07158209484742971</v>
       </c>
       <c r="Z4">
-        <v>0.09673418768085985</v>
+        <v>0.114456267843239</v>
       </c>
       <c r="AA4">
-        <v>0.04845047928966904</v>
+        <v>0.04363699281944805</v>
       </c>
       <c r="AB4">
-        <v>0.05190894695835283</v>
+        <v>0.05024615830075058</v>
       </c>
       <c r="AC4">
-        <v>-0.003458467668683789</v>
+        <v>-0.006609165481302526</v>
       </c>
       <c r="AD4">
-        <v>338.4</v>
+        <v>310.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>338.4</v>
+        <v>310.4</v>
       </c>
       <c r="AG4">
-        <v>216.6</v>
+        <v>118.6</v>
       </c>
       <c r="AH4">
-        <v>0.8199660770535497</v>
+        <v>0.8574585635359115</v>
       </c>
       <c r="AI4">
-        <v>0.6673239992112009</v>
+        <v>0.6548523206751055</v>
       </c>
       <c r="AJ4">
-        <v>0.7445857683052595</v>
+        <v>0.6968272620446533</v>
       </c>
       <c r="AK4">
-        <v>0.5621593563457046</v>
+        <v>0.4202693125442948</v>
       </c>
       <c r="AL4">
-        <v>15.5</v>
+        <v>16.6</v>
       </c>
       <c r="AM4">
-        <v>15.5</v>
+        <v>16.6</v>
       </c>
       <c r="AN4">
-        <v>12.30545454545454</v>
+        <v>14.71090047393365</v>
       </c>
       <c r="AO4">
-        <v>1.748387096774194</v>
+        <v>1.253012048192771</v>
       </c>
       <c r="AP4">
-        <v>7.876363636363635</v>
+        <v>5.620853080568718</v>
       </c>
       <c r="AQ4">
-        <v>1.748387096774194</v>
+        <v>1.253012048192771</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>United Finance Company SAOG (MSM:UFCI)</t>
+          <t>National Finance Company SAOG (MSM:NFCI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,10 +993,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.124</v>
+        <v>0.152</v>
       </c>
       <c r="E5">
-        <v>-0.296</v>
+        <v>0.129</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1002,82 +1011,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.99</v>
+        <v>27.5</v>
       </c>
       <c r="L5">
-        <v>0.1913461538461538</v>
+        <v>0.5149812734082397</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>19.4</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.1104154809334092</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.7054545454545454</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>19.4</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.1104154809334092</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.7054545454545454</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>2.19</v>
+        <v>17.4</v>
       </c>
       <c r="V5">
-        <v>0.03353751914241961</v>
+        <v>0.09903244166192374</v>
       </c>
       <c r="W5">
-        <v>0.01761061946902655</v>
+        <v>0.1025736665423349</v>
       </c>
       <c r="X5">
-        <v>0.04819670637777101</v>
+        <v>0.07276354469406951</v>
       </c>
       <c r="Y5">
-        <v>-0.03058608690874447</v>
+        <v>0.02981012184826543</v>
       </c>
       <c r="Z5">
-        <v>0.0431266846361186</v>
+        <v>0.04951780415430267</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04403983126805584</v>
+        <v>0.04884042642155553</v>
       </c>
       <c r="AC5">
-        <v>-0.04403983126805584</v>
+        <v>-0.04884042642155553</v>
       </c>
       <c r="AD5">
-        <v>117.5</v>
+        <v>766.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>117.5</v>
+        <v>766.8</v>
       </c>
       <c r="AG5">
-        <v>115.31</v>
+        <v>749.4</v>
       </c>
       <c r="AH5">
-        <v>0.6427789934354485</v>
+        <v>0.8135809018567639</v>
       </c>
       <c r="AI5">
-        <v>0.5051590713671539</v>
+        <v>0.7353279631760644</v>
       </c>
       <c r="AJ5">
-        <v>0.6384474835280438</v>
+        <v>0.8100745865311859</v>
       </c>
       <c r="AK5">
-        <v>0.5004557093876134</v>
+        <v>0.7308367466354593</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1094,7 +1106,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oman International Development and Investment Company SAOG (MSM:OMVS)</t>
+          <t>Taageer Finance Company SAOG (MSM:TFCI)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1103,10 +1115,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.244</v>
+        <v>-0.00211</v>
       </c>
       <c r="E6">
-        <v>0.161</v>
+        <v>-0.09970000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1121,85 +1133,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>85.3</v>
+        <v>6.35</v>
       </c>
       <c r="L6">
-        <v>0.1482189400521286</v>
+        <v>0.3207070707070707</v>
       </c>
       <c r="M6">
-        <v>133.2</v>
+        <v>5.27</v>
       </c>
       <c r="N6">
-        <v>0.2457111234089651</v>
+        <v>0.09634369287020109</v>
       </c>
       <c r="O6">
-        <v>1.561547479484173</v>
+        <v>0.8299212598425196</v>
       </c>
       <c r="P6">
-        <v>50.1</v>
+        <v>5.27</v>
       </c>
       <c r="Q6">
-        <v>0.09241837299391256</v>
+        <v>0.09634369287020109</v>
       </c>
       <c r="R6">
-        <v>0.5873388042203986</v>
+        <v>0.8299212598425196</v>
       </c>
       <c r="S6">
-        <v>83.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.6238738738738738</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>728.8</v>
+        <v>6.07</v>
       </c>
       <c r="V6">
-        <v>1.344401401955359</v>
+        <v>0.1109689213893967</v>
       </c>
       <c r="W6">
-        <v>0.1225926990514516</v>
+        <v>0.06001890359168242</v>
       </c>
       <c r="X6">
-        <v>0.04344697932368802</v>
+        <v>0.09089210531837762</v>
       </c>
       <c r="Y6">
-        <v>0.07914571972776355</v>
+        <v>-0.0308732017266952</v>
       </c>
       <c r="Z6">
-        <v>1.120740019474197</v>
+        <v>0.04119678748283467</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04719942936375394</v>
+        <v>0.05020111571424413</v>
       </c>
       <c r="AC6">
-        <v>-0.04719942936375394</v>
+        <v>-0.05020111571424413</v>
       </c>
       <c r="AD6">
-        <v>711.2</v>
+        <v>325.3</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>711.2</v>
+        <v>325.3</v>
       </c>
       <c r="AG6">
-        <v>-17.59999999999991</v>
+        <v>319.23</v>
       </c>
       <c r="AH6">
-        <v>0.5674619005824623</v>
+        <v>0.8560526315789474</v>
       </c>
       <c r="AI6">
-        <v>0.3671657201858544</v>
+        <v>0.7528349919000231</v>
       </c>
       <c r="AJ6">
-        <v>-0.03355576739752127</v>
+        <v>0.8537159361377799</v>
       </c>
       <c r="AK6">
-        <v>-0.01456712464823697</v>
+        <v>0.7493134286317865</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1225,10 +1237,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.103</v>
-      </c>
-      <c r="E7">
-        <v>-0.203</v>
+        <v>-0.248</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1243,85 +1252,82 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.67</v>
+        <v>-6.36</v>
       </c>
       <c r="L7">
-        <v>0.3084033613445378</v>
+        <v>-1.232558139534884</v>
       </c>
       <c r="M7">
-        <v>4.87</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.1196560196560196</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>1.326975476839237</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>4.87</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.1196560196560196</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>1.326975476839237</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>6.59</v>
+        <v>3.34</v>
       </c>
       <c r="V7">
-        <v>0.1619164619164619</v>
+        <v>0.1132203389830508</v>
       </c>
       <c r="W7">
-        <v>0.03465533522190746</v>
+        <v>-0.06133076181292189</v>
       </c>
       <c r="X7">
-        <v>0.07986223650638449</v>
+        <v>0.09448904662915671</v>
       </c>
       <c r="Y7">
-        <v>-0.04520690128447703</v>
+        <v>-0.1558198084420786</v>
       </c>
       <c r="Z7">
-        <v>0.03535248507174475</v>
+        <v>0.0170516506394369</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05498641437200048</v>
+        <v>0.05040056897588463</v>
       </c>
       <c r="AC7">
-        <v>-0.05498641437200048</v>
+        <v>-0.05040056897588463</v>
       </c>
       <c r="AD7">
-        <v>205.5</v>
+        <v>184.7</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>205.5</v>
+        <v>184.7</v>
       </c>
       <c r="AG7">
-        <v>198.91</v>
+        <v>181.36</v>
       </c>
       <c r="AH7">
-        <v>0.8346872461413485</v>
+        <v>0.8622782446311859</v>
       </c>
       <c r="AI7">
-        <v>0.6646183699870634</v>
+        <v>0.6545003543586109</v>
       </c>
       <c r="AJ7">
-        <v>0.8301406452151412</v>
+        <v>0.8600967466565493</v>
       </c>
       <c r="AK7">
-        <v>0.6573146954826343</v>
+        <v>0.6503621889119988</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1338,7 +1344,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Taageer Finance Company SAOG (MSM:TFCI)</t>
+          <t>United Finance Company SAOG (MSM:UFCI)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1347,10 +1353,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0573</v>
+        <v>-0.147</v>
       </c>
       <c r="E8">
-        <v>0.0978</v>
+        <v>-0.283</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1365,85 +1371,82 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.3</v>
+        <v>2.58</v>
       </c>
       <c r="L8">
-        <v>0.575187969924812</v>
+        <v>0.2433962264150943</v>
       </c>
       <c r="M8">
-        <v>6.59</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.09806547619047619</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.430718954248366</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>6.59</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.09806547619047619</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.430718954248366</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>3.98</v>
+        <v>7.29</v>
       </c>
       <c r="V8">
-        <v>0.05922619047619047</v>
+        <v>0.1827067669172932</v>
       </c>
       <c r="W8">
-        <v>0.1475409836065574</v>
+        <v>0.02241529105125977</v>
       </c>
       <c r="X8">
-        <v>0.08558940514776808</v>
+        <v>0.05096537071624238</v>
       </c>
       <c r="Y8">
-        <v>0.06195157845878929</v>
+        <v>-0.02855007966498261</v>
       </c>
       <c r="Z8">
-        <v>0.06471547089020267</v>
+        <v>0.04600494770192266</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.05541302922846672</v>
+        <v>0.05207213264336406</v>
       </c>
       <c r="AC8">
-        <v>-0.05541302922846672</v>
+        <v>-0.05207213264336406</v>
       </c>
       <c r="AD8">
-        <v>378.8</v>
+        <v>98.2</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>378.8</v>
+        <v>98.2</v>
       </c>
       <c r="AG8">
-        <v>374.82</v>
+        <v>90.91</v>
       </c>
       <c r="AH8">
-        <v>0.8493273542600898</v>
+        <v>0.7110789283128168</v>
       </c>
       <c r="AI8">
-        <v>0.7816756087494841</v>
+        <v>0.4550509731232623</v>
       </c>
       <c r="AJ8">
-        <v>0.8479706800597259</v>
+        <v>0.6949774482073235</v>
       </c>
       <c r="AK8">
-        <v>0.7798676709250552</v>
+        <v>0.4359982734641025</v>
       </c>
       <c r="AL8">
         <v>0</v>
